--- a/bin/tests/data/spreadsheets/test_SGA_updatedClassPrgrm_MetaG.xlsx
+++ b/bin/tests/data/spreadsheets/test_SGA_updatedClassPrgrm_MetaG.xlsx
@@ -115,7 +115,7 @@
     <t xml:space="preserve">meconium</t>
   </si>
   <si>
-    <t xml:space="preserve">Kraken2</t>
+    <t xml:space="preserve">Kraken 2</t>
   </si>
   <si>
     <t xml:space="preserve">RDP</t>
@@ -684,7 +684,7 @@
       </c>
       <c r="Z3" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>32</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="Z4" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>32</v>
@@ -872,7 +872,7 @@
       </c>
       <c r="Z5" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>32</v>
@@ -966,7 +966,7 @@
       </c>
       <c r="Z6" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>32</v>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="Z7" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>32</v>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="Z8" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>32</v>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="Z9" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA9" s="8" t="s">
         <v>32</v>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="Z10" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA10" s="8" t="s">
         <v>32</v>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="Z11" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA11" s="8" t="s">
         <v>32</v>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="Z12" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA12" s="8" t="s">
         <v>32</v>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="Z13" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA13" s="8" t="s">
         <v>32</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="Z14" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA14" s="8" t="s">
         <v>32</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="Z15" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA15" s="8" t="s">
         <v>32</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="Z16" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA16" s="8" t="s">
         <v>32</v>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="Z17" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA17" s="8" t="s">
         <v>32</v>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="Z18" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA18" s="8" t="s">
         <v>32</v>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="Z19" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA19" s="8" t="s">
         <v>32</v>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="Z20" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA20" s="8" t="s">
         <v>32</v>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="Z21" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA21" s="8" t="s">
         <v>32</v>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="Z22" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA22" s="8" t="s">
         <v>32</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="Z23" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA23" s="8" t="s">
         <v>32</v>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="Z24" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA24" s="8" t="s">
         <v>32</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="Z25" s="8" t="str">
         <f aca="false">Z$2</f>
-        <v>Kraken2</v>
+        <v>Kraken 2</v>
       </c>
       <c r="AA25" s="8" t="s">
         <v>32</v>
